--- a/our timetable.xlsx
+++ b/our timetable.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/our timetable.xlsx
+++ b/our timetable.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
